--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\ET8-Luban\Unity\Assets\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\ET8-Luban\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F8817-13F2-4AC9-86B8-EA73F6C17397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E31600F-19BB-4EA8-934A-05CBB7D31578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -134,107 +134,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>资源配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartMachineConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartProcessConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartSceneConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartZoneConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benchmark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Localhost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RouterTest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Benchmark/StartMachineConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Benchmark/StartProcessConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Benchmark/StartSceneConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Benchmark/StartZoneConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Localhost/StartMachineConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Localhost/StartProcessConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Localhost/StartSceneConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Localhost/StartZoneConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Release/StartMachineConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Release/StartProcessConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Release/StartSceneConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/Release/StartZoneConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/RouterTest/StartMachineConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/RouterTest/StartProcessConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/RouterTest/StartSceneConfig.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartConfig/RouterTest/StartZoneConfig.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -242,63 +142,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NotExportCode1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotExportCode2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotExportCode3</t>
-  </si>
-  <si>
-    <t>NotExportCode4</t>
-  </si>
-  <si>
-    <t>NotExportCode5</t>
-  </si>
-  <si>
-    <t>NotExportCode6</t>
-  </si>
-  <si>
-    <t>NotExportCode7</t>
-  </si>
-  <si>
-    <t>NotExportCode8</t>
-  </si>
-  <si>
-    <t>NotExportCode11</t>
-  </si>
-  <si>
-    <t>NotExportCode12</t>
-  </si>
-  <si>
-    <t>NotExportCode9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotExportCode10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartMachineConfigCategory</t>
-  </si>
-  <si>
-    <t>StartProcessConfigCategory</t>
-  </si>
-  <si>
-    <t>StartSceneConfigCategory</t>
-  </si>
-  <si>
-    <t>StartZoneConfigCategory</t>
-  </si>
-  <si>
-    <t>取值c|s，可以有多个，以逗号','分隔；为了支持机器人运行，此项目里c代表c和s, s代表仅s。请不要留空，不然会导入到StartConfig里；请不要留空，不然会导入到StartConfig里</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请注意看左边分组的说明,分组配置不能留空</t>
+    <t>取值c|s，可以有多个，以逗号','分隔；空则表示属于所有分组；为了支持机器人运行，此项目里c代表c和s, s代表仅s。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,14 +193,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -389,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,9 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -684,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1003"/>
+  <dimension ref="A1:K987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -790,7 +623,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -801,536 +634,444 @@
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="str">
-        <f>IF(C4&lt;&gt;"",_xlfn.CONCAT(C4,"Category"),"")</f>
-        <v>NotExportCode1Category</v>
+        <f t="shared" ref="B4:B6" si="0">IF(C4&lt;&gt;"",_xlfn.CONCAT(C4,"Category"),"")</f>
+        <v>AIConfigCategory</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="b">
-        <f t="shared" ref="D4:D71" si="0">IF(C4&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" ref="D4:D55" si="1">IF(C4&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>70</v>
+      <c r="K4" s="1" t="str">
+        <f t="shared" ref="K4:K55" si="2">IF(B4&lt;&gt;"",B4,"")</f>
+        <v>AIConfigCategory</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5:B72" si="1">IF(C5&lt;&gt;"",_xlfn.CONCAT(C5,"Category"),"")</f>
-        <v>NotExportCode2Category</v>
+        <f t="shared" si="0"/>
+        <v>UnitConfigCategory</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>71</v>
+      <c r="K5" s="1" t="str">
+        <f>IF(B5&lt;&gt;"",B5,"")</f>
+        <v>UnitConfigCategory</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>NotExportCode3Category</v>
+        <f t="shared" si="0"/>
+        <v>ResourceConfigCategory</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="b">
-        <f t="shared" si="0"/>
+        <f>IF(C6&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>72</v>
+      <c r="K6" s="1" t="str">
+        <f>IF(B6&lt;&gt;"",B6,"")</f>
+        <v>ResourceConfigCategory</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="str">
+        <f t="shared" ref="B7:B56" si="3">IF(C7&lt;&gt;"",_xlfn.CONCAT(C7,"Category"),"")</f>
+        <v/>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>NotExportCode4Category</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>73</v>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>NotExportCode5Category</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>70</v>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>NotExportCode6Category</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>71</v>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>NotExportCode7Category</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>72</v>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>NotExportCode8Category</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>73</v>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="str">
-        <f>IF(C12&lt;&gt;"",_xlfn.CONCAT(C12,"Category"),"")</f>
-        <v>NotExportCode9Category</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <f>IF(C12&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>70</v>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="str">
-        <f>IF(C13&lt;&gt;"",_xlfn.CONCAT(C13,"Category"),"")</f>
-        <v>NotExportCode10Category</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <f>IF(C13&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>71</v>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="str">
-        <f>IF(C14&lt;&gt;"",_xlfn.CONCAT(C14,"Category"),"")</f>
-        <v>NotExportCode11Category</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="b">
-        <f>IF(C14&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>72</v>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="str">
-        <f>IF(C15&lt;&gt;"",_xlfn.CONCAT(C15,"Category"),"")</f>
-        <v>NotExportCode12Category</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1" t="b">
-        <f>IF(C15&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>73</v>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="str">
-        <f>IF(C16&lt;&gt;"",_xlfn.CONCAT(C16,"Category"),"")</f>
-        <v>StartMachineConfigCategory</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="str">
-        <f>IF(B16&lt;&gt;"",B16,"")</f>
-        <v>StartMachineConfigCategory</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>StartProcessConfigCategory</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="str">
-        <f t="shared" ref="K17:K71" si="2">IF(B17&lt;&gt;"",B17,"")</f>
-        <v>StartProcessConfigCategory</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>StartSceneConfigCategory</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>StartSceneConfigCategory</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>StartZoneConfigCategory</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>StartZoneConfigCategory</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="str">
-        <f t="shared" ref="B20:B22" si="3">IF(C20&lt;&gt;"",_xlfn.CONCAT(C20,"Category"),"")</f>
-        <v>AIConfigCategory</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>29</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>AIConfigCategory</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitConfigCategory</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="str">
-        <f>IF(B21&lt;&gt;"",B21,"")</f>
-        <v>UnitConfigCategory</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>ResourceConfigCategory</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1" t="b">
-        <f>IF(C22&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="str">
-        <f>IF(B22&lt;&gt;"",B22,"")</f>
-        <v>ResourceConfigCategory</v>
+        <f t="shared" si="2"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E23" s="1"/>
@@ -1347,12 +1088,12 @@
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E24" s="1"/>
@@ -1369,12 +1110,12 @@
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E25" s="1"/>
@@ -1391,12 +1132,12 @@
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E26" s="1"/>
@@ -1413,12 +1154,12 @@
     <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E27" s="1"/>
@@ -1435,12 +1176,12 @@
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E28" s="1"/>
@@ -1457,12 +1198,12 @@
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E29" s="1"/>
@@ -1479,12 +1220,12 @@
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E30" s="1"/>
@@ -1501,12 +1242,12 @@
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E31" s="1"/>
@@ -1523,12 +1264,12 @@
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E32" s="1"/>
@@ -1545,12 +1286,12 @@
     <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E33" s="1"/>
@@ -1567,12 +1308,12 @@
     <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E34" s="1"/>
@@ -1589,12 +1330,12 @@
     <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E35" s="1"/>
@@ -1611,12 +1352,12 @@
     <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E36" s="1"/>
@@ -1633,12 +1374,12 @@
     <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E37" s="1"/>
@@ -1655,12 +1396,12 @@
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E38" s="1"/>
@@ -1677,12 +1418,12 @@
     <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E39" s="1"/>
@@ -1699,12 +1440,12 @@
     <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E40" s="1"/>
@@ -1721,12 +1462,12 @@
     <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E41" s="1"/>
@@ -1743,12 +1484,12 @@
     <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E42" s="1"/>
@@ -1765,12 +1506,12 @@
     <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E43" s="1"/>
@@ -1787,12 +1528,12 @@
     <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E44" s="1"/>
@@ -1809,12 +1550,12 @@
     <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E45" s="1"/>
@@ -1831,12 +1572,12 @@
     <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E46" s="1"/>
@@ -1853,12 +1594,12 @@
     <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E47" s="1"/>
@@ -1875,12 +1616,12 @@
     <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E48" s="1"/>
@@ -1897,12 +1638,12 @@
     <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E49" s="1"/>
@@ -1919,12 +1660,12 @@
     <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E50" s="1"/>
@@ -1941,12 +1682,12 @@
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E51" s="1"/>
@@ -1963,12 +1704,12 @@
     <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E52" s="1"/>
@@ -1985,12 +1726,12 @@
     <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E53" s="1"/>
@@ -2007,12 +1748,12 @@
     <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E54" s="1"/>
@@ -2029,12 +1770,12 @@
     <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E55" s="1"/>
@@ -2051,12 +1792,12 @@
     <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D56:D119" si="4">IF(C56&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E56" s="1"/>
@@ -2066,19 +1807,19 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K56:K119" si="5">IF(B56&lt;&gt;"",B56,"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B57:B120" si="6">IF(C57&lt;&gt;"",_xlfn.CONCAT(C57,"Category"),"")</f>
         <v/>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E57" s="1"/>
@@ -2088,19 +1829,19 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E58" s="1"/>
@@ -2110,19 +1851,19 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E59" s="1"/>
@@ -2132,19 +1873,19 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E60" s="1"/>
@@ -2154,19 +1895,19 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E61" s="1"/>
@@ -2176,19 +1917,19 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E62" s="1"/>
@@ -2198,19 +1939,19 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E63" s="1"/>
@@ -2220,19 +1961,19 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E64" s="1"/>
@@ -2242,19 +1983,19 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E65" s="1"/>
@@ -2264,19 +2005,19 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E66" s="1"/>
@@ -2286,19 +2027,19 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E67" s="1"/>
@@ -2308,19 +2049,19 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E68" s="1"/>
@@ -2330,19 +2071,19 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E69" s="1"/>
@@ -2352,19 +2093,19 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E70" s="1"/>
@@ -2374,19 +2115,19 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E71" s="1"/>
@@ -2396,19 +2137,19 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="str">
-        <f t="shared" ref="D72:D135" si="4">IF(C72&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E72" s="1"/>
@@ -2418,14 +2159,14 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="str">
-        <f t="shared" ref="K72:K135" si="5">IF(B72&lt;&gt;"",B72,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="str">
-        <f t="shared" ref="B73:B136" si="6">IF(C73&lt;&gt;"",_xlfn.CONCAT(C73,"Category"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C73" s="1"/>
@@ -3464,7 +3205,7 @@
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D120:D183" si="7">IF(C120&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E120" s="1"/>
@@ -3474,19 +3215,19 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K120:K183" si="8">IF(B120&lt;&gt;"",B120,"")</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B121:B184" si="9">IF(C121&lt;&gt;"",_xlfn.CONCAT(C121,"Category"),"")</f>
         <v/>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E121" s="1"/>
@@ -3496,19 +3237,19 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E122" s="1"/>
@@ -3518,19 +3259,19 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E123" s="1"/>
@@ -3540,19 +3281,19 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E124" s="1"/>
@@ -3562,19 +3303,19 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E125" s="1"/>
@@ -3584,19 +3325,19 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E126" s="1"/>
@@ -3606,19 +3347,19 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E127" s="1"/>
@@ -3628,19 +3369,19 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E128" s="1"/>
@@ -3650,19 +3391,19 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E129" s="1"/>
@@ -3672,19 +3413,19 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E130" s="1"/>
@@ -3694,19 +3435,19 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E131" s="1"/>
@@ -3716,19 +3457,19 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E132" s="1"/>
@@ -3738,19 +3479,19 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E133" s="1"/>
@@ -3760,19 +3501,19 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E134" s="1"/>
@@ -3782,19 +3523,19 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E135" s="1"/>
@@ -3804,19 +3545,19 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="str">
-        <f t="shared" ref="D136:D199" si="7">IF(C136&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E136" s="1"/>
@@ -3826,14 +3567,14 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1" t="str">
-        <f t="shared" ref="K136:K199" si="8">IF(B136&lt;&gt;"",B136,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1" t="str">
-        <f t="shared" ref="B137:B200" si="9">IF(C137&lt;&gt;"",_xlfn.CONCAT(C137,"Category"),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C137" s="1"/>
@@ -4872,7 +4613,7 @@
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D184:D247" si="10">IF(C184&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E184" s="1"/>
@@ -4882,19 +4623,19 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K184:K247" si="11">IF(B184&lt;&gt;"",B184,"")</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B185:B248" si="12">IF(C185&lt;&gt;"",_xlfn.CONCAT(C185,"Category"),"")</f>
         <v/>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E185" s="1"/>
@@ -4904,19 +4645,19 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E186" s="1"/>
@@ -4926,19 +4667,19 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E187" s="1"/>
@@ -4948,19 +4689,19 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E188" s="1"/>
@@ -4970,19 +4711,19 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E189" s="1"/>
@@ -4992,19 +4733,19 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E190" s="1"/>
@@ -5014,19 +4755,19 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E191" s="1"/>
@@ -5036,19 +4777,19 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E192" s="1"/>
@@ -5058,19 +4799,19 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E193" s="1"/>
@@ -5080,19 +4821,19 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E194" s="1"/>
@@ -5102,19 +4843,19 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E195" s="1"/>
@@ -5124,19 +4865,19 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E196" s="1"/>
@@ -5146,19 +4887,19 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E197" s="1"/>
@@ -5168,19 +4909,19 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E198" s="1"/>
@@ -5190,19 +4931,19 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E199" s="1"/>
@@ -5212,19 +4953,19 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="str">
-        <f t="shared" ref="D200:D263" si="10">IF(C200&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E200" s="1"/>
@@ -5234,14 +4975,14 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1" t="str">
-        <f t="shared" ref="K200:K263" si="11">IF(B200&lt;&gt;"",B200,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="str">
-        <f t="shared" ref="B201:B264" si="12">IF(C201&lt;&gt;"",_xlfn.CONCAT(C201,"Category"),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C201" s="1"/>
@@ -6280,7 +6021,7 @@
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D248:D311" si="13">IF(C248&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E248" s="1"/>
@@ -6290,19 +6031,19 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K248:K311" si="14">IF(B248&lt;&gt;"",B248,"")</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B249:B312" si="15">IF(C249&lt;&gt;"",_xlfn.CONCAT(C249,"Category"),"")</f>
         <v/>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E249" s="1"/>
@@ -6312,19 +6053,19 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E250" s="1"/>
@@ -6334,19 +6075,19 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E251" s="1"/>
@@ -6356,19 +6097,19 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E252" s="1"/>
@@ -6378,19 +6119,19 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E253" s="1"/>
@@ -6400,19 +6141,19 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E254" s="1"/>
@@ -6422,19 +6163,19 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E255" s="1"/>
@@ -6444,19 +6185,19 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E256" s="1"/>
@@ -6466,19 +6207,19 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E257" s="1"/>
@@ -6488,19 +6229,19 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E258" s="1"/>
@@ -6510,19 +6251,19 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E259" s="1"/>
@@ -6532,19 +6273,19 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E260" s="1"/>
@@ -6554,19 +6295,19 @@
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E261" s="1"/>
@@ -6576,19 +6317,19 @@
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E262" s="1"/>
@@ -6598,19 +6339,19 @@
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E263" s="1"/>
@@ -6620,19 +6361,19 @@
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1" t="str">
-        <f t="shared" ref="D264:D327" si="13">IF(C264&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E264" s="1"/>
@@ -6642,14 +6383,14 @@
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1" t="str">
-        <f t="shared" ref="K264:K327" si="14">IF(B264&lt;&gt;"",B264,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1" t="str">
-        <f t="shared" ref="B265:B328" si="15">IF(C265&lt;&gt;"",_xlfn.CONCAT(C265,"Category"),"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C265" s="1"/>
@@ -7688,7 +7429,7 @@
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D312:D375" si="16">IF(C312&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E312" s="1"/>
@@ -7698,19 +7439,19 @@
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="K312:K375" si="17">IF(B312&lt;&gt;"",B312,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B313:B376" si="18">IF(C313&lt;&gt;"",_xlfn.CONCAT(C313,"Category"),"")</f>
         <v/>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E313" s="1"/>
@@ -7720,19 +7461,19 @@
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E314" s="1"/>
@@ -7742,19 +7483,19 @@
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E315" s="1"/>
@@ -7764,19 +7505,19 @@
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E316" s="1"/>
@@ -7786,19 +7527,19 @@
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E317" s="1"/>
@@ -7808,19 +7549,19 @@
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E318" s="1"/>
@@ -7830,19 +7571,19 @@
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E319" s="1"/>
@@ -7852,19 +7593,19 @@
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E320" s="1"/>
@@ -7874,19 +7615,19 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E321" s="1"/>
@@ -7896,19 +7637,19 @@
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E322" s="1"/>
@@ -7918,19 +7659,19 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="323" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E323" s="1"/>
@@ -7940,19 +7681,19 @@
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="324" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E324" s="1"/>
@@ -7962,19 +7703,19 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="325" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E325" s="1"/>
@@ -7984,19 +7725,19 @@
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E326" s="1"/>
@@ -8006,19 +7747,19 @@
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="327" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E327" s="1"/>
@@ -8028,19 +7769,19 @@
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="328" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1" t="str">
-        <f t="shared" ref="D328:D391" si="16">IF(C328&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E328" s="1"/>
@@ -8050,14 +7791,14 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1" t="str">
-        <f t="shared" ref="K328:K391" si="17">IF(B328&lt;&gt;"",B328,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="329" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1" t="str">
-        <f t="shared" ref="B329:B392" si="18">IF(C329&lt;&gt;"",_xlfn.CONCAT(C329,"Category"),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C329" s="1"/>
@@ -9096,7 +8837,7 @@
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D376:D439" si="19">IF(C376&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E376" s="1"/>
@@ -9106,19 +8847,19 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
       <c r="K376" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K376:K439" si="20">IF(B376&lt;&gt;"",B376,"")</f>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="B377:B440" si="21">IF(C377&lt;&gt;"",_xlfn.CONCAT(C377,"Category"),"")</f>
         <v/>
       </c>
       <c r="C377" s="1"/>
       <c r="D377" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E377" s="1"/>
@@ -9128,19 +8869,19 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
       <c r="K377" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="378" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C378" s="1"/>
       <c r="D378" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E378" s="1"/>
@@ -9150,19 +8891,19 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
       <c r="K378" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="379" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C379" s="1"/>
       <c r="D379" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E379" s="1"/>
@@ -9172,19 +8913,19 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
       <c r="K379" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C380" s="1"/>
       <c r="D380" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E380" s="1"/>
@@ -9194,19 +8935,19 @@
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
       <c r="K380" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="381" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E381" s="1"/>
@@ -9216,19 +8957,19 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
       <c r="K381" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="382" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C382" s="1"/>
       <c r="D382" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E382" s="1"/>
@@ -9238,19 +8979,19 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
       <c r="K382" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E383" s="1"/>
@@ -9260,19 +9001,19 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
       <c r="K383" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C384" s="1"/>
       <c r="D384" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E384" s="1"/>
@@ -9282,19 +9023,19 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
       <c r="K384" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C385" s="1"/>
       <c r="D385" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E385" s="1"/>
@@ -9304,19 +9045,19 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
       <c r="K385" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C386" s="1"/>
       <c r="D386" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E386" s="1"/>
@@ -9326,19 +9067,19 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
       <c r="K386" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E387" s="1"/>
@@ -9348,19 +9089,19 @@
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
       <c r="K387" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E388" s="1"/>
@@ -9370,19 +9111,19 @@
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
       <c r="K388" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E389" s="1"/>
@@ -9392,19 +9133,19 @@
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
       <c r="K389" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E390" s="1"/>
@@ -9414,19 +9155,19 @@
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
       <c r="K390" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E391" s="1"/>
@@ -9436,19 +9177,19 @@
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
       <c r="K391" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1" t="str">
-        <f t="shared" ref="D392:D455" si="19">IF(C392&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E392" s="1"/>
@@ -9458,14 +9199,14 @@
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
       <c r="K392" s="1" t="str">
-        <f t="shared" ref="K392:K455" si="20">IF(B392&lt;&gt;"",B392,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="393" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1" t="str">
-        <f t="shared" ref="B393:B456" si="21">IF(C393&lt;&gt;"",_xlfn.CONCAT(C393,"Category"),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C393" s="1"/>
@@ -10504,7 +10245,7 @@
       </c>
       <c r="C440" s="1"/>
       <c r="D440" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D440:D503" si="22">IF(C440&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E440" s="1"/>
@@ -10514,19 +10255,19 @@
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
       <c r="K440" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="K440:K503" si="23">IF(B440&lt;&gt;"",B440,"")</f>
         <v/>
       </c>
     </row>
     <row r="441" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="B441:B504" si="24">IF(C441&lt;&gt;"",_xlfn.CONCAT(C441,"Category"),"")</f>
         <v/>
       </c>
       <c r="C441" s="1"/>
       <c r="D441" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E441" s="1"/>
@@ -10536,19 +10277,19 @@
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
       <c r="K441" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="442" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C442" s="1"/>
       <c r="D442" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E442" s="1"/>
@@ -10558,19 +10299,19 @@
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
       <c r="K442" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="443" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C443" s="1"/>
       <c r="D443" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E443" s="1"/>
@@ -10580,19 +10321,19 @@
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
       <c r="K443" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="444" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C444" s="1"/>
       <c r="D444" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E444" s="1"/>
@@ -10602,19 +10343,19 @@
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
       <c r="K444" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="445" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C445" s="1"/>
       <c r="D445" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E445" s="1"/>
@@ -10624,19 +10365,19 @@
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
       <c r="K445" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="446" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C446" s="1"/>
       <c r="D446" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E446" s="1"/>
@@ -10646,19 +10387,19 @@
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
       <c r="K446" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="447" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C447" s="1"/>
       <c r="D447" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E447" s="1"/>
@@ -10668,19 +10409,19 @@
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
       <c r="K447" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="448" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C448" s="1"/>
       <c r="D448" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E448" s="1"/>
@@ -10690,19 +10431,19 @@
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
       <c r="K448" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="449" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C449" s="1"/>
       <c r="D449" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E449" s="1"/>
@@ -10712,19 +10453,19 @@
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
       <c r="K449" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="450" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C450" s="1"/>
       <c r="D450" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E450" s="1"/>
@@ -10734,19 +10475,19 @@
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
       <c r="K450" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="451" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C451" s="1"/>
       <c r="D451" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E451" s="1"/>
@@ -10756,19 +10497,19 @@
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
       <c r="K451" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="452" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C452" s="1"/>
       <c r="D452" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E452" s="1"/>
@@ -10778,19 +10519,19 @@
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
       <c r="K452" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="453" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C453" s="1"/>
       <c r="D453" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E453" s="1"/>
@@ -10800,19 +10541,19 @@
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
       <c r="K453" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="454" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C454" s="1"/>
       <c r="D454" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E454" s="1"/>
@@ -10822,19 +10563,19 @@
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
       <c r="K454" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="455" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C455" s="1"/>
       <c r="D455" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E455" s="1"/>
@@ -10844,19 +10585,19 @@
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
       <c r="K455" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="456" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C456" s="1"/>
       <c r="D456" s="1" t="str">
-        <f t="shared" ref="D456:D519" si="22">IF(C456&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E456" s="1"/>
@@ -10866,14 +10607,14 @@
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
       <c r="K456" s="1" t="str">
-        <f t="shared" ref="K456:K519" si="23">IF(B456&lt;&gt;"",B456,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="457" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1" t="str">
-        <f t="shared" ref="B457:B520" si="24">IF(C457&lt;&gt;"",_xlfn.CONCAT(C457,"Category"),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C457" s="1"/>
@@ -11912,7 +11653,7 @@
       </c>
       <c r="C504" s="1"/>
       <c r="D504" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="D504:D567" si="25">IF(C504&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E504" s="1"/>
@@ -11922,19 +11663,19 @@
       <c r="I504" s="1"/>
       <c r="J504" s="1"/>
       <c r="K504" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="K504:K567" si="26">IF(B504&lt;&gt;"",B504,"")</f>
         <v/>
       </c>
     </row>
     <row r="505" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="B505:B568" si="27">IF(C505&lt;&gt;"",_xlfn.CONCAT(C505,"Category"),"")</f>
         <v/>
       </c>
       <c r="C505" s="1"/>
       <c r="D505" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E505" s="1"/>
@@ -11944,19 +11685,19 @@
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
       <c r="K505" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="506" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C506" s="1"/>
       <c r="D506" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E506" s="1"/>
@@ -11966,19 +11707,19 @@
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
       <c r="K506" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="507" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C507" s="1"/>
       <c r="D507" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E507" s="1"/>
@@ -11988,19 +11729,19 @@
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
       <c r="K507" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="508" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C508" s="1"/>
       <c r="D508" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E508" s="1"/>
@@ -12010,19 +11751,19 @@
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
       <c r="K508" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="509" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C509" s="1"/>
       <c r="D509" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E509" s="1"/>
@@ -12032,19 +11773,19 @@
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
       <c r="K509" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="510" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C510" s="1"/>
       <c r="D510" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E510" s="1"/>
@@ -12054,19 +11795,19 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
       <c r="K510" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="511" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C511" s="1"/>
       <c r="D511" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E511" s="1"/>
@@ -12076,19 +11817,19 @@
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
       <c r="K511" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="512" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C512" s="1"/>
       <c r="D512" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E512" s="1"/>
@@ -12098,19 +11839,19 @@
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
       <c r="K512" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="513" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C513" s="1"/>
       <c r="D513" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E513" s="1"/>
@@ -12120,19 +11861,19 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
       <c r="K513" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="514" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C514" s="1"/>
       <c r="D514" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E514" s="1"/>
@@ -12142,19 +11883,19 @@
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
       <c r="K514" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="515" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C515" s="1"/>
       <c r="D515" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E515" s="1"/>
@@ -12164,19 +11905,19 @@
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
       <c r="K515" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="516" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C516" s="1"/>
       <c r="D516" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E516" s="1"/>
@@ -12186,19 +11927,19 @@
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
       <c r="K516" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="517" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C517" s="1"/>
       <c r="D517" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E517" s="1"/>
@@ -12208,19 +11949,19 @@
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
       <c r="K517" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="518" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C518" s="1"/>
       <c r="D518" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E518" s="1"/>
@@ -12230,19 +11971,19 @@
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
       <c r="K518" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="519" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C519" s="1"/>
       <c r="D519" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E519" s="1"/>
@@ -12252,19 +11993,19 @@
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
       <c r="K519" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="520" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C520" s="1"/>
       <c r="D520" s="1" t="str">
-        <f t="shared" ref="D520:D583" si="25">IF(C520&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E520" s="1"/>
@@ -12274,14 +12015,14 @@
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
       <c r="K520" s="1" t="str">
-        <f t="shared" ref="K520:K583" si="26">IF(B520&lt;&gt;"",B520,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="521" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1" t="str">
-        <f t="shared" ref="B521:B584" si="27">IF(C521&lt;&gt;"",_xlfn.CONCAT(C521,"Category"),"")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C521" s="1"/>
@@ -13320,7 +13061,7 @@
       </c>
       <c r="C568" s="1"/>
       <c r="D568" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="D568:D631" si="28">IF(C568&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E568" s="1"/>
@@ -13330,19 +13071,19 @@
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
       <c r="K568" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="K568:K631" si="29">IF(B568&lt;&gt;"",B568,"")</f>
         <v/>
       </c>
     </row>
     <row r="569" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="B569:B632" si="30">IF(C569&lt;&gt;"",_xlfn.CONCAT(C569,"Category"),"")</f>
         <v/>
       </c>
       <c r="C569" s="1"/>
       <c r="D569" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E569" s="1"/>
@@ -13352,19 +13093,19 @@
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
       <c r="K569" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="570" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C570" s="1"/>
       <c r="D570" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E570" s="1"/>
@@ -13374,19 +13115,19 @@
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
       <c r="K570" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="571" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C571" s="1"/>
       <c r="D571" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E571" s="1"/>
@@ -13396,19 +13137,19 @@
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
       <c r="K571" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="572" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C572" s="1"/>
       <c r="D572" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E572" s="1"/>
@@ -13418,19 +13159,19 @@
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
       <c r="K572" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="573" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C573" s="1"/>
       <c r="D573" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E573" s="1"/>
@@ -13440,19 +13181,19 @@
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
       <c r="K573" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="574" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C574" s="1"/>
       <c r="D574" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E574" s="1"/>
@@ -13462,19 +13203,19 @@
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
       <c r="K574" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="575" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C575" s="1"/>
       <c r="D575" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E575" s="1"/>
@@ -13484,19 +13225,19 @@
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
       <c r="K575" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="576" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C576" s="1"/>
       <c r="D576" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E576" s="1"/>
@@ -13506,19 +13247,19 @@
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
       <c r="K576" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="577" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C577" s="1"/>
       <c r="D577" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E577" s="1"/>
@@ -13528,19 +13269,19 @@
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
       <c r="K577" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="578" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C578" s="1"/>
       <c r="D578" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E578" s="1"/>
@@ -13550,19 +13291,19 @@
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
       <c r="K578" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="579" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C579" s="1"/>
       <c r="D579" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E579" s="1"/>
@@ -13572,19 +13313,19 @@
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
       <c r="K579" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="580" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C580" s="1"/>
       <c r="D580" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E580" s="1"/>
@@ -13594,19 +13335,19 @@
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
       <c r="K580" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="581" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C581" s="1"/>
       <c r="D581" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E581" s="1"/>
@@ -13616,19 +13357,19 @@
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
       <c r="K581" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="582" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C582" s="1"/>
       <c r="D582" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E582" s="1"/>
@@ -13638,19 +13379,19 @@
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
       <c r="K582" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="583" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C583" s="1"/>
       <c r="D583" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E583" s="1"/>
@@ -13660,19 +13401,19 @@
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
       <c r="K583" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="584" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C584" s="1"/>
       <c r="D584" s="1" t="str">
-        <f t="shared" ref="D584:D647" si="28">IF(C584&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E584" s="1"/>
@@ -13682,14 +13423,14 @@
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
       <c r="K584" s="1" t="str">
-        <f t="shared" ref="K584:K647" si="29">IF(B584&lt;&gt;"",B584,"")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="585" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1" t="str">
-        <f t="shared" ref="B585:B648" si="30">IF(C585&lt;&gt;"",_xlfn.CONCAT(C585,"Category"),"")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C585" s="1"/>
@@ -14728,7 +14469,7 @@
       </c>
       <c r="C632" s="1"/>
       <c r="D632" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="D632:D695" si="31">IF(C632&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E632" s="1"/>
@@ -14738,19 +14479,19 @@
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
       <c r="K632" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="K632:K695" si="32">IF(B632&lt;&gt;"",B632,"")</f>
         <v/>
       </c>
     </row>
     <row r="633" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="B633:B696" si="33">IF(C633&lt;&gt;"",_xlfn.CONCAT(C633,"Category"),"")</f>
         <v/>
       </c>
       <c r="C633" s="1"/>
       <c r="D633" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E633" s="1"/>
@@ -14760,19 +14501,19 @@
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
       <c r="K633" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="634" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C634" s="1"/>
       <c r="D634" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E634" s="1"/>
@@ -14782,19 +14523,19 @@
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
       <c r="K634" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="635" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C635" s="1"/>
       <c r="D635" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E635" s="1"/>
@@ -14804,19 +14545,19 @@
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
       <c r="K635" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="636" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C636" s="1"/>
       <c r="D636" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E636" s="1"/>
@@ -14826,19 +14567,19 @@
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
       <c r="K636" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="637" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C637" s="1"/>
       <c r="D637" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E637" s="1"/>
@@ -14848,19 +14589,19 @@
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
       <c r="K637" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="638" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C638" s="1"/>
       <c r="D638" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E638" s="1"/>
@@ -14870,19 +14611,19 @@
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
       <c r="K638" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="639" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C639" s="1"/>
       <c r="D639" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E639" s="1"/>
@@ -14892,19 +14633,19 @@
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
       <c r="K639" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="640" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C640" s="1"/>
       <c r="D640" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E640" s="1"/>
@@ -14914,19 +14655,19 @@
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
       <c r="K640" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="641" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C641" s="1"/>
       <c r="D641" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E641" s="1"/>
@@ -14936,19 +14677,19 @@
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
       <c r="K641" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="642" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C642" s="1"/>
       <c r="D642" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E642" s="1"/>
@@ -14958,19 +14699,19 @@
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
       <c r="K642" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="643" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C643" s="1"/>
       <c r="D643" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E643" s="1"/>
@@ -14980,19 +14721,19 @@
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
       <c r="K643" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="644" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C644" s="1"/>
       <c r="D644" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E644" s="1"/>
@@ -15002,19 +14743,19 @@
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
       <c r="K644" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="645" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C645" s="1"/>
       <c r="D645" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E645" s="1"/>
@@ -15024,19 +14765,19 @@
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
       <c r="K645" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="646" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C646" s="1"/>
       <c r="D646" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E646" s="1"/>
@@ -15046,19 +14787,19 @@
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
       <c r="K646" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="647" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C647" s="1"/>
       <c r="D647" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E647" s="1"/>
@@ -15068,19 +14809,19 @@
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
       <c r="K647" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="648" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C648" s="1"/>
       <c r="D648" s="1" t="str">
-        <f t="shared" ref="D648:D711" si="31">IF(C648&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E648" s="1"/>
@@ -15090,14 +14831,14 @@
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
       <c r="K648" s="1" t="str">
-        <f t="shared" ref="K648:K711" si="32">IF(B648&lt;&gt;"",B648,"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="649" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1" t="str">
-        <f t="shared" ref="B649:B712" si="33">IF(C649&lt;&gt;"",_xlfn.CONCAT(C649,"Category"),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C649" s="1"/>
@@ -16136,7 +15877,7 @@
       </c>
       <c r="C696" s="1"/>
       <c r="D696" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="D696:D759" si="34">IF(C696&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E696" s="1"/>
@@ -16146,19 +15887,19 @@
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
       <c r="K696" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="K696:K759" si="35">IF(B696&lt;&gt;"",B696,"")</f>
         <v/>
       </c>
     </row>
     <row r="697" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="B697:B760" si="36">IF(C697&lt;&gt;"",_xlfn.CONCAT(C697,"Category"),"")</f>
         <v/>
       </c>
       <c r="C697" s="1"/>
       <c r="D697" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E697" s="1"/>
@@ -16168,19 +15909,19 @@
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
       <c r="K697" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="698" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C698" s="1"/>
       <c r="D698" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E698" s="1"/>
@@ -16190,19 +15931,19 @@
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
       <c r="K698" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="699" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C699" s="1"/>
       <c r="D699" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E699" s="1"/>
@@ -16212,19 +15953,19 @@
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
       <c r="K699" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="700" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C700" s="1"/>
       <c r="D700" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E700" s="1"/>
@@ -16234,19 +15975,19 @@
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
       <c r="K700" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="701" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C701" s="1"/>
       <c r="D701" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E701" s="1"/>
@@ -16256,19 +15997,19 @@
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
       <c r="K701" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="702" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C702" s="1"/>
       <c r="D702" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E702" s="1"/>
@@ -16278,19 +16019,19 @@
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
       <c r="K702" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="703" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C703" s="1"/>
       <c r="D703" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E703" s="1"/>
@@ -16300,19 +16041,19 @@
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
       <c r="K703" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="704" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C704" s="1"/>
       <c r="D704" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E704" s="1"/>
@@ -16322,19 +16063,19 @@
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
       <c r="K704" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="705" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C705" s="1"/>
       <c r="D705" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E705" s="1"/>
@@ -16344,19 +16085,19 @@
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
       <c r="K705" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="706" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C706" s="1"/>
       <c r="D706" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E706" s="1"/>
@@ -16366,19 +16107,19 @@
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
       <c r="K706" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="707" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C707" s="1"/>
       <c r="D707" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E707" s="1"/>
@@ -16388,19 +16129,19 @@
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
       <c r="K707" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="708" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C708" s="1"/>
       <c r="D708" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E708" s="1"/>
@@ -16410,19 +16151,19 @@
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
       <c r="K708" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="709" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C709" s="1"/>
       <c r="D709" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E709" s="1"/>
@@ -16432,19 +16173,19 @@
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
       <c r="K709" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="710" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C710" s="1"/>
       <c r="D710" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E710" s="1"/>
@@ -16454,19 +16195,19 @@
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
       <c r="K710" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="711" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C711" s="1"/>
       <c r="D711" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E711" s="1"/>
@@ -16476,19 +16217,19 @@
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
       <c r="K711" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="712" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C712" s="1"/>
       <c r="D712" s="1" t="str">
-        <f t="shared" ref="D712:D775" si="34">IF(C712&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E712" s="1"/>
@@ -16498,14 +16239,14 @@
       <c r="I712" s="1"/>
       <c r="J712" s="1"/>
       <c r="K712" s="1" t="str">
-        <f t="shared" ref="K712:K775" si="35">IF(B712&lt;&gt;"",B712,"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="713" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1" t="str">
-        <f t="shared" ref="B713:B776" si="36">IF(C713&lt;&gt;"",_xlfn.CONCAT(C713,"Category"),"")</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C713" s="1"/>
@@ -17544,7 +17285,7 @@
       </c>
       <c r="C760" s="1"/>
       <c r="D760" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="D760:D823" si="37">IF(C760&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E760" s="1"/>
@@ -17554,19 +17295,19 @@
       <c r="I760" s="1"/>
       <c r="J760" s="1"/>
       <c r="K760" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="K760:K823" si="38">IF(B760&lt;&gt;"",B760,"")</f>
         <v/>
       </c>
     </row>
     <row r="761" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="B761:B824" si="39">IF(C761&lt;&gt;"",_xlfn.CONCAT(C761,"Category"),"")</f>
         <v/>
       </c>
       <c r="C761" s="1"/>
       <c r="D761" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E761" s="1"/>
@@ -17576,19 +17317,19 @@
       <c r="I761" s="1"/>
       <c r="J761" s="1"/>
       <c r="K761" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="762" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C762" s="1"/>
       <c r="D762" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E762" s="1"/>
@@ -17598,19 +17339,19 @@
       <c r="I762" s="1"/>
       <c r="J762" s="1"/>
       <c r="K762" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="763" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C763" s="1"/>
       <c r="D763" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E763" s="1"/>
@@ -17620,19 +17361,19 @@
       <c r="I763" s="1"/>
       <c r="J763" s="1"/>
       <c r="K763" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="764" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C764" s="1"/>
       <c r="D764" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E764" s="1"/>
@@ -17642,19 +17383,19 @@
       <c r="I764" s="1"/>
       <c r="J764" s="1"/>
       <c r="K764" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="765" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C765" s="1"/>
       <c r="D765" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E765" s="1"/>
@@ -17664,19 +17405,19 @@
       <c r="I765" s="1"/>
       <c r="J765" s="1"/>
       <c r="K765" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="766" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C766" s="1"/>
       <c r="D766" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E766" s="1"/>
@@ -17686,19 +17427,19 @@
       <c r="I766" s="1"/>
       <c r="J766" s="1"/>
       <c r="K766" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="767" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C767" s="1"/>
       <c r="D767" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E767" s="1"/>
@@ -17708,19 +17449,19 @@
       <c r="I767" s="1"/>
       <c r="J767" s="1"/>
       <c r="K767" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="768" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C768" s="1"/>
       <c r="D768" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E768" s="1"/>
@@ -17730,19 +17471,19 @@
       <c r="I768" s="1"/>
       <c r="J768" s="1"/>
       <c r="K768" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="769" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C769" s="1"/>
       <c r="D769" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E769" s="1"/>
@@ -17752,19 +17493,19 @@
       <c r="I769" s="1"/>
       <c r="J769" s="1"/>
       <c r="K769" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="770" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C770" s="1"/>
       <c r="D770" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E770" s="1"/>
@@ -17774,19 +17515,19 @@
       <c r="I770" s="1"/>
       <c r="J770" s="1"/>
       <c r="K770" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="771" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C771" s="1"/>
       <c r="D771" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E771" s="1"/>
@@ -17796,19 +17537,19 @@
       <c r="I771" s="1"/>
       <c r="J771" s="1"/>
       <c r="K771" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="772" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C772" s="1"/>
       <c r="D772" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E772" s="1"/>
@@ -17818,19 +17559,19 @@
       <c r="I772" s="1"/>
       <c r="J772" s="1"/>
       <c r="K772" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="773" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C773" s="1"/>
       <c r="D773" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E773" s="1"/>
@@ -17840,19 +17581,19 @@
       <c r="I773" s="1"/>
       <c r="J773" s="1"/>
       <c r="K773" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="774" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C774" s="1"/>
       <c r="D774" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E774" s="1"/>
@@ -17862,19 +17603,19 @@
       <c r="I774" s="1"/>
       <c r="J774" s="1"/>
       <c r="K774" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="775" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C775" s="1"/>
       <c r="D775" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E775" s="1"/>
@@ -17884,19 +17625,19 @@
       <c r="I775" s="1"/>
       <c r="J775" s="1"/>
       <c r="K775" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="776" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C776" s="1"/>
       <c r="D776" s="1" t="str">
-        <f t="shared" ref="D776:D839" si="37">IF(C776&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E776" s="1"/>
@@ -17906,14 +17647,14 @@
       <c r="I776" s="1"/>
       <c r="J776" s="1"/>
       <c r="K776" s="1" t="str">
-        <f t="shared" ref="K776:K839" si="38">IF(B776&lt;&gt;"",B776,"")</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="777" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1" t="str">
-        <f t="shared" ref="B777:B840" si="39">IF(C777&lt;&gt;"",_xlfn.CONCAT(C777,"Category"),"")</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C777" s="1"/>
@@ -18952,7 +18693,7 @@
       </c>
       <c r="C824" s="1"/>
       <c r="D824" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="D824:D887" si="40">IF(C824&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E824" s="1"/>
@@ -18962,19 +18703,19 @@
       <c r="I824" s="1"/>
       <c r="J824" s="1"/>
       <c r="K824" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="K824:K887" si="41">IF(B824&lt;&gt;"",B824,"")</f>
         <v/>
       </c>
     </row>
     <row r="825" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="B825:B888" si="42">IF(C825&lt;&gt;"",_xlfn.CONCAT(C825,"Category"),"")</f>
         <v/>
       </c>
       <c r="C825" s="1"/>
       <c r="D825" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E825" s="1"/>
@@ -18984,19 +18725,19 @@
       <c r="I825" s="1"/>
       <c r="J825" s="1"/>
       <c r="K825" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="826" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C826" s="1"/>
       <c r="D826" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E826" s="1"/>
@@ -19006,19 +18747,19 @@
       <c r="I826" s="1"/>
       <c r="J826" s="1"/>
       <c r="K826" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="827" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C827" s="1"/>
       <c r="D827" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E827" s="1"/>
@@ -19028,19 +18769,19 @@
       <c r="I827" s="1"/>
       <c r="J827" s="1"/>
       <c r="K827" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="828" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C828" s="1"/>
       <c r="D828" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E828" s="1"/>
@@ -19050,19 +18791,19 @@
       <c r="I828" s="1"/>
       <c r="J828" s="1"/>
       <c r="K828" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="829" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C829" s="1"/>
       <c r="D829" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E829" s="1"/>
@@ -19072,19 +18813,19 @@
       <c r="I829" s="1"/>
       <c r="J829" s="1"/>
       <c r="K829" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="830" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C830" s="1"/>
       <c r="D830" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E830" s="1"/>
@@ -19094,19 +18835,19 @@
       <c r="I830" s="1"/>
       <c r="J830" s="1"/>
       <c r="K830" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="831" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C831" s="1"/>
       <c r="D831" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E831" s="1"/>
@@ -19116,19 +18857,19 @@
       <c r="I831" s="1"/>
       <c r="J831" s="1"/>
       <c r="K831" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="832" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C832" s="1"/>
       <c r="D832" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E832" s="1"/>
@@ -19138,19 +18879,19 @@
       <c r="I832" s="1"/>
       <c r="J832" s="1"/>
       <c r="K832" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="833" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C833" s="1"/>
       <c r="D833" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E833" s="1"/>
@@ -19160,19 +18901,19 @@
       <c r="I833" s="1"/>
       <c r="J833" s="1"/>
       <c r="K833" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="834" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C834" s="1"/>
       <c r="D834" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E834" s="1"/>
@@ -19182,19 +18923,19 @@
       <c r="I834" s="1"/>
       <c r="J834" s="1"/>
       <c r="K834" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="835" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C835" s="1"/>
       <c r="D835" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E835" s="1"/>
@@ -19204,19 +18945,19 @@
       <c r="I835" s="1"/>
       <c r="J835" s="1"/>
       <c r="K835" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="836" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C836" s="1"/>
       <c r="D836" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E836" s="1"/>
@@ -19226,19 +18967,19 @@
       <c r="I836" s="1"/>
       <c r="J836" s="1"/>
       <c r="K836" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="837" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C837" s="1"/>
       <c r="D837" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E837" s="1"/>
@@ -19248,19 +18989,19 @@
       <c r="I837" s="1"/>
       <c r="J837" s="1"/>
       <c r="K837" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="838" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C838" s="1"/>
       <c r="D838" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E838" s="1"/>
@@ -19270,19 +19011,19 @@
       <c r="I838" s="1"/>
       <c r="J838" s="1"/>
       <c r="K838" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="839" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C839" s="1"/>
       <c r="D839" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E839" s="1"/>
@@ -19292,19 +19033,19 @@
       <c r="I839" s="1"/>
       <c r="J839" s="1"/>
       <c r="K839" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="840" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C840" s="1"/>
       <c r="D840" s="1" t="str">
-        <f t="shared" ref="D840:D903" si="40">IF(C840&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E840" s="1"/>
@@ -19314,14 +19055,14 @@
       <c r="I840" s="1"/>
       <c r="J840" s="1"/>
       <c r="K840" s="1" t="str">
-        <f t="shared" ref="K840:K903" si="41">IF(B840&lt;&gt;"",B840,"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="841" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1" t="str">
-        <f t="shared" ref="B841:B904" si="42">IF(C841&lt;&gt;"",_xlfn.CONCAT(C841,"Category"),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C841" s="1"/>
@@ -20360,7 +20101,7 @@
       </c>
       <c r="C888" s="1"/>
       <c r="D888" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="D888:D951" si="43">IF(C888&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E888" s="1"/>
@@ -20370,19 +20111,19 @@
       <c r="I888" s="1"/>
       <c r="J888" s="1"/>
       <c r="K888" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="K888:K951" si="44">IF(B888&lt;&gt;"",B888,"")</f>
         <v/>
       </c>
     </row>
     <row r="889" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="B889:B952" si="45">IF(C889&lt;&gt;"",_xlfn.CONCAT(C889,"Category"),"")</f>
         <v/>
       </c>
       <c r="C889" s="1"/>
       <c r="D889" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E889" s="1"/>
@@ -20392,19 +20133,19 @@
       <c r="I889" s="1"/>
       <c r="J889" s="1"/>
       <c r="K889" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="890" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C890" s="1"/>
       <c r="D890" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E890" s="1"/>
@@ -20414,19 +20155,19 @@
       <c r="I890" s="1"/>
       <c r="J890" s="1"/>
       <c r="K890" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="891" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C891" s="1"/>
       <c r="D891" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E891" s="1"/>
@@ -20436,19 +20177,19 @@
       <c r="I891" s="1"/>
       <c r="J891" s="1"/>
       <c r="K891" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="892" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C892" s="1"/>
       <c r="D892" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E892" s="1"/>
@@ -20458,19 +20199,19 @@
       <c r="I892" s="1"/>
       <c r="J892" s="1"/>
       <c r="K892" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="893" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C893" s="1"/>
       <c r="D893" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E893" s="1"/>
@@ -20480,19 +20221,19 @@
       <c r="I893" s="1"/>
       <c r="J893" s="1"/>
       <c r="K893" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="894" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C894" s="1"/>
       <c r="D894" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E894" s="1"/>
@@ -20502,19 +20243,19 @@
       <c r="I894" s="1"/>
       <c r="J894" s="1"/>
       <c r="K894" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="895" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C895" s="1"/>
       <c r="D895" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E895" s="1"/>
@@ -20524,19 +20265,19 @@
       <c r="I895" s="1"/>
       <c r="J895" s="1"/>
       <c r="K895" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="896" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C896" s="1"/>
       <c r="D896" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E896" s="1"/>
@@ -20546,19 +20287,19 @@
       <c r="I896" s="1"/>
       <c r="J896" s="1"/>
       <c r="K896" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="897" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C897" s="1"/>
       <c r="D897" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E897" s="1"/>
@@ -20568,19 +20309,19 @@
       <c r="I897" s="1"/>
       <c r="J897" s="1"/>
       <c r="K897" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="898" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C898" s="1"/>
       <c r="D898" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E898" s="1"/>
@@ -20590,19 +20331,19 @@
       <c r="I898" s="1"/>
       <c r="J898" s="1"/>
       <c r="K898" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="899" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C899" s="1"/>
       <c r="D899" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E899" s="1"/>
@@ -20612,19 +20353,19 @@
       <c r="I899" s="1"/>
       <c r="J899" s="1"/>
       <c r="K899" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="900" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C900" s="1"/>
       <c r="D900" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E900" s="1"/>
@@ -20634,19 +20375,19 @@
       <c r="I900" s="1"/>
       <c r="J900" s="1"/>
       <c r="K900" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="901" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C901" s="1"/>
       <c r="D901" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E901" s="1"/>
@@ -20656,19 +20397,19 @@
       <c r="I901" s="1"/>
       <c r="J901" s="1"/>
       <c r="K901" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="902" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C902" s="1"/>
       <c r="D902" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E902" s="1"/>
@@ -20678,19 +20419,19 @@
       <c r="I902" s="1"/>
       <c r="J902" s="1"/>
       <c r="K902" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="903" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C903" s="1"/>
       <c r="D903" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E903" s="1"/>
@@ -20700,19 +20441,19 @@
       <c r="I903" s="1"/>
       <c r="J903" s="1"/>
       <c r="K903" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="904" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C904" s="1"/>
       <c r="D904" s="1" t="str">
-        <f t="shared" ref="D904:D967" si="43">IF(C904&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E904" s="1"/>
@@ -20722,14 +20463,14 @@
       <c r="I904" s="1"/>
       <c r="J904" s="1"/>
       <c r="K904" s="1" t="str">
-        <f t="shared" ref="K904:K967" si="44">IF(B904&lt;&gt;"",B904,"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="905" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1" t="str">
-        <f t="shared" ref="B905:B968" si="45">IF(C905&lt;&gt;"",_xlfn.CONCAT(C905,"Category"),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C905" s="1"/>
@@ -21768,7 +21509,7 @@
       </c>
       <c r="C952" s="1"/>
       <c r="D952" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="D952:D987" si="46">IF(C952&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E952" s="1"/>
@@ -21778,19 +21519,19 @@
       <c r="I952" s="1"/>
       <c r="J952" s="1"/>
       <c r="K952" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="K952:K987" si="47">IF(B952&lt;&gt;"",B952,"")</f>
         <v/>
       </c>
     </row>
     <row r="953" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="B953:B987" si="48">IF(C953&lt;&gt;"",_xlfn.CONCAT(C953,"Category"),"")</f>
         <v/>
       </c>
       <c r="C953" s="1"/>
       <c r="D953" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E953" s="1"/>
@@ -21800,19 +21541,19 @@
       <c r="I953" s="1"/>
       <c r="J953" s="1"/>
       <c r="K953" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="954" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C954" s="1"/>
       <c r="D954" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E954" s="1"/>
@@ -21822,19 +21563,19 @@
       <c r="I954" s="1"/>
       <c r="J954" s="1"/>
       <c r="K954" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="955" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C955" s="1"/>
       <c r="D955" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E955" s="1"/>
@@ -21844,19 +21585,19 @@
       <c r="I955" s="1"/>
       <c r="J955" s="1"/>
       <c r="K955" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="956" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C956" s="1"/>
       <c r="D956" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E956" s="1"/>
@@ -21866,19 +21607,19 @@
       <c r="I956" s="1"/>
       <c r="J956" s="1"/>
       <c r="K956" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="957" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C957" s="1"/>
       <c r="D957" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E957" s="1"/>
@@ -21888,19 +21629,19 @@
       <c r="I957" s="1"/>
       <c r="J957" s="1"/>
       <c r="K957" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="958" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C958" s="1"/>
       <c r="D958" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E958" s="1"/>
@@ -21910,19 +21651,19 @@
       <c r="I958" s="1"/>
       <c r="J958" s="1"/>
       <c r="K958" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="959" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C959" s="1"/>
       <c r="D959" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E959" s="1"/>
@@ -21932,19 +21673,19 @@
       <c r="I959" s="1"/>
       <c r="J959" s="1"/>
       <c r="K959" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="960" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C960" s="1"/>
       <c r="D960" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E960" s="1"/>
@@ -21954,19 +21695,19 @@
       <c r="I960" s="1"/>
       <c r="J960" s="1"/>
       <c r="K960" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="961" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C961" s="1"/>
       <c r="D961" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E961" s="1"/>
@@ -21976,19 +21717,19 @@
       <c r="I961" s="1"/>
       <c r="J961" s="1"/>
       <c r="K961" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="962" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C962" s="1"/>
       <c r="D962" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E962" s="1"/>
@@ -21998,19 +21739,19 @@
       <c r="I962" s="1"/>
       <c r="J962" s="1"/>
       <c r="K962" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="963" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C963" s="1"/>
       <c r="D963" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E963" s="1"/>
@@ -22020,19 +21761,19 @@
       <c r="I963" s="1"/>
       <c r="J963" s="1"/>
       <c r="K963" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="964" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C964" s="1"/>
       <c r="D964" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E964" s="1"/>
@@ -22042,19 +21783,19 @@
       <c r="I964" s="1"/>
       <c r="J964" s="1"/>
       <c r="K964" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="965" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C965" s="1"/>
       <c r="D965" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E965" s="1"/>
@@ -22064,19 +21805,19 @@
       <c r="I965" s="1"/>
       <c r="J965" s="1"/>
       <c r="K965" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="966" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C966" s="1"/>
       <c r="D966" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E966" s="1"/>
@@ -22086,19 +21827,19 @@
       <c r="I966" s="1"/>
       <c r="J966" s="1"/>
       <c r="K966" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="967" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C967" s="1"/>
       <c r="D967" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E967" s="1"/>
@@ -22108,19 +21849,19 @@
       <c r="I967" s="1"/>
       <c r="J967" s="1"/>
       <c r="K967" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="968" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C968" s="1"/>
       <c r="D968" s="1" t="str">
-        <f t="shared" ref="D968:D1003" si="46">IF(C968&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E968" s="1"/>
@@ -22130,14 +21871,14 @@
       <c r="I968" s="1"/>
       <c r="J968" s="1"/>
       <c r="K968" s="1" t="str">
-        <f t="shared" ref="K968:K1003" si="47">IF(B968&lt;&gt;"",B968,"")</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="969" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="1" t="str">
-        <f t="shared" ref="B969:B1003" si="48">IF(C969&lt;&gt;"",_xlfn.CONCAT(C969,"Category"),"")</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C969" s="1"/>
@@ -22552,358 +22293,6 @@
         <v/>
       </c>
     </row>
-    <row r="988" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C988" s="1"/>
-      <c r="D988" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E988" s="1"/>
-      <c r="F988" s="1"/>
-      <c r="G988" s="1"/>
-      <c r="H988" s="1"/>
-      <c r="I988" s="1"/>
-      <c r="J988" s="1"/>
-      <c r="K988" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="989" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A989" s="1"/>
-      <c r="B989" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C989" s="1"/>
-      <c r="D989" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E989" s="1"/>
-      <c r="F989" s="1"/>
-      <c r="G989" s="1"/>
-      <c r="H989" s="1"/>
-      <c r="I989" s="1"/>
-      <c r="J989" s="1"/>
-      <c r="K989" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="990" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E990" s="1"/>
-      <c r="F990" s="1"/>
-      <c r="G990" s="1"/>
-      <c r="H990" s="1"/>
-      <c r="I990" s="1"/>
-      <c r="J990" s="1"/>
-      <c r="K990" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="991" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E991" s="1"/>
-      <c r="F991" s="1"/>
-      <c r="G991" s="1"/>
-      <c r="H991" s="1"/>
-      <c r="I991" s="1"/>
-      <c r="J991" s="1"/>
-      <c r="K991" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="992" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E992" s="1"/>
-      <c r="F992" s="1"/>
-      <c r="G992" s="1"/>
-      <c r="H992" s="1"/>
-      <c r="I992" s="1"/>
-      <c r="J992" s="1"/>
-      <c r="K992" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="993" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E993" s="1"/>
-      <c r="F993" s="1"/>
-      <c r="G993" s="1"/>
-      <c r="H993" s="1"/>
-      <c r="I993" s="1"/>
-      <c r="J993" s="1"/>
-      <c r="K993" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="994" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="995" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-      <c r="H995" s="1"/>
-      <c r="I995" s="1"/>
-      <c r="J995" s="1"/>
-      <c r="K995" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="996" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
-      <c r="I996" s="1"/>
-      <c r="J996" s="1"/>
-      <c r="K996" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="997" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="998" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="999" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1000" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1001" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-      <c r="K1001" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1002" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="1"/>
-      <c r="G1002" s="1"/>
-      <c r="H1002" s="1"/>
-      <c r="I1002" s="1"/>
-      <c r="J1002" s="1"/>
-      <c r="K1002" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="1003" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="1"/>
-      <c r="G1003" s="1"/>
-      <c r="H1003" s="1"/>
-      <c r="I1003" s="1"/>
-      <c r="J1003" s="1"/>
-      <c r="K1003" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
